--- a/src/main/resources/Data/DMRC_Stations.xlsx
+++ b/src/main/resources/Data/DMRC_Stations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikas\IdeaProjects\MetroRoutePredictor\src\main\resources\com\metro\prediction\metroroutepredictor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikas\IdeaProjects\MetroRoutePredictor\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6002EA3C-FA5A-4C39-9C25-6B93A6A7C5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555CAF74-98CF-486C-A6D0-27C59D41CE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2172" yWindow="2148" windowWidth="17280" windowHeight="9420" xr2:uid="{F6A641C7-A60E-4E32-B5C5-1DBCE25BBE34}"/>
   </bookViews>
@@ -965,10 +965,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1287,7 +1287,7 @@
   <dimension ref="A1:H289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D285" sqref="D285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1303,36 +1303,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1353,10 +1353,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4">
@@ -1376,8 +1376,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5">
         <v>2</v>
       </c>
@@ -1395,8 +1395,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="C6">
         <v>3</v>
       </c>
@@ -1414,8 +1414,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="C7">
         <v>4</v>
       </c>
@@ -1433,8 +1433,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
       <c r="C8">
         <v>5</v>
       </c>
@@ -1452,8 +1452,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="C9">
         <v>6</v>
       </c>
@@ -1471,8 +1471,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
       <c r="C10">
         <v>7</v>
       </c>
@@ -1490,8 +1490,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
       <c r="C11">
         <v>8</v>
       </c>
@@ -1509,8 +1509,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
       <c r="C12">
         <v>9</v>
       </c>
@@ -1528,8 +1528,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
       <c r="C13">
         <v>10</v>
       </c>
@@ -1547,8 +1547,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
       <c r="C14">
         <v>11</v>
       </c>
@@ -1566,8 +1566,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
       <c r="C15">
         <v>12</v>
       </c>
@@ -1585,8 +1585,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
       <c r="C16">
         <v>13</v>
       </c>
@@ -1607,8 +1607,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
       <c r="C17">
         <v>14</v>
       </c>
@@ -1626,8 +1626,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
       <c r="C18">
         <v>15</v>
       </c>
@@ -1645,8 +1645,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
       <c r="C19">
         <v>16</v>
       </c>
@@ -1667,8 +1667,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
       <c r="C20">
         <v>17</v>
       </c>
@@ -1686,8 +1686,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
       <c r="C21">
         <v>18</v>
       </c>
@@ -1705,8 +1705,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
       <c r="C22">
         <v>19</v>
       </c>
@@ -1724,8 +1724,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
       <c r="C23">
         <v>20</v>
       </c>
@@ -1743,8 +1743,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
       <c r="C24">
         <v>21</v>
       </c>
@@ -1765,8 +1765,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
       <c r="C25">
         <v>22</v>
       </c>
@@ -1784,8 +1784,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
       <c r="C26">
         <v>23</v>
       </c>
@@ -1803,8 +1803,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
       <c r="C27">
         <v>24</v>
       </c>
@@ -1825,8 +1825,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
       <c r="C28">
         <v>25</v>
       </c>
@@ -1844,8 +1844,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
       <c r="C29">
         <v>26</v>
       </c>
@@ -1863,8 +1863,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
       <c r="C30">
         <v>27</v>
       </c>
@@ -1882,8 +1882,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
       <c r="C31">
         <v>28</v>
       </c>
@@ -1901,8 +1901,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
       <c r="C32">
         <v>29</v>
       </c>
@@ -1920,10 +1920,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C33">
@@ -1943,8 +1943,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
       <c r="C34">
         <v>2</v>
       </c>
@@ -1962,8 +1962,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
       <c r="C35">
         <v>3</v>
       </c>
@@ -1981,8 +1981,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
       <c r="C36">
         <v>4</v>
       </c>
@@ -2000,8 +2000,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
       <c r="C37">
         <v>5</v>
       </c>
@@ -2019,8 +2019,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
       <c r="C38">
         <v>6</v>
       </c>
@@ -2041,8 +2041,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
       <c r="C39">
         <v>7</v>
       </c>
@@ -2060,8 +2060,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
       <c r="C40">
         <v>8</v>
       </c>
@@ -2079,8 +2079,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
       <c r="C41">
         <v>9</v>
       </c>
@@ -2098,8 +2098,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
       <c r="C42">
         <v>10</v>
       </c>
@@ -2117,8 +2117,8 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
       <c r="C43">
         <v>11</v>
       </c>
@@ -2136,8 +2136,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
       <c r="C44">
         <v>12</v>
       </c>
@@ -2158,8 +2158,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
       <c r="C45">
         <v>13</v>
       </c>
@@ -2177,8 +2177,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
       <c r="C46">
         <v>14</v>
       </c>
@@ -2196,8 +2196,8 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
       <c r="C47">
         <v>15</v>
       </c>
@@ -2218,8 +2218,8 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
       <c r="C48">
         <v>16</v>
       </c>
@@ -2240,8 +2240,8 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
       <c r="C49">
         <v>17</v>
       </c>
@@ -2259,8 +2259,8 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
       <c r="C50">
         <v>18</v>
       </c>
@@ -2281,8 +2281,8 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
       <c r="C51">
         <v>19</v>
       </c>
@@ -2300,8 +2300,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
       <c r="C52">
         <v>20</v>
       </c>
@@ -2319,8 +2319,8 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
       <c r="C53">
         <v>21</v>
       </c>
@@ -2338,8 +2338,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
       <c r="C54">
         <v>22</v>
       </c>
@@ -2360,8 +2360,8 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
       <c r="C55">
         <v>23</v>
       </c>
@@ -2379,8 +2379,8 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
       <c r="C56">
         <v>24</v>
       </c>
@@ -2398,8 +2398,8 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
       <c r="C57">
         <v>25</v>
       </c>
@@ -2420,8 +2420,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
       <c r="C58">
         <v>26</v>
       </c>
@@ -2439,8 +2439,8 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
       <c r="C59">
         <v>27</v>
       </c>
@@ -2458,8 +2458,8 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
       <c r="C60">
         <v>28</v>
       </c>
@@ -2477,8 +2477,8 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
       <c r="C61">
         <v>29</v>
       </c>
@@ -2496,8 +2496,8 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
       <c r="C62">
         <v>30</v>
       </c>
@@ -2515,8 +2515,8 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
       <c r="C63">
         <v>31</v>
       </c>
@@ -2534,8 +2534,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
       <c r="C64">
         <v>32</v>
       </c>
@@ -2553,8 +2553,8 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
       <c r="C65">
         <v>33</v>
       </c>
@@ -2572,8 +2572,8 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
       <c r="C66">
         <v>34</v>
       </c>
@@ -2594,8 +2594,8 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
       <c r="C67">
         <v>35</v>
       </c>
@@ -2613,8 +2613,8 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
       <c r="C68">
         <v>36</v>
       </c>
@@ -2632,8 +2632,8 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
       <c r="C69">
         <v>37</v>
       </c>
@@ -2651,10 +2651,10 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C70">
@@ -2677,8 +2677,8 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
       <c r="C71">
         <v>2</v>
       </c>
@@ -2696,8 +2696,8 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
       <c r="C72">
         <v>3</v>
       </c>
@@ -2715,8 +2715,8 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
       <c r="C73">
         <v>4</v>
       </c>
@@ -2734,8 +2734,8 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
       <c r="C74">
         <v>5</v>
       </c>
@@ -2753,8 +2753,8 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
       <c r="C75">
         <v>6</v>
       </c>
@@ -2772,8 +2772,8 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
       <c r="C76">
         <v>7</v>
       </c>
@@ -2791,8 +2791,8 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
       <c r="C77">
         <v>8</v>
       </c>
@@ -2810,8 +2810,8 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
       <c r="C78">
         <v>9</v>
       </c>
@@ -2832,8 +2832,8 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
       <c r="C79">
         <v>10</v>
       </c>
@@ -2851,8 +2851,8 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
       <c r="C80">
         <v>11</v>
       </c>
@@ -2870,8 +2870,8 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
       <c r="C81">
         <v>12</v>
       </c>
@@ -2889,8 +2889,8 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
       <c r="C82">
         <v>13</v>
       </c>
@@ -2908,8 +2908,8 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
       <c r="C83">
         <v>14</v>
       </c>
@@ -2930,8 +2930,8 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
       <c r="C84">
         <v>15</v>
       </c>
@@ -2949,8 +2949,8 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
       <c r="C85">
         <v>16</v>
       </c>
@@ -2968,8 +2968,8 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
       <c r="C86">
         <v>17</v>
       </c>
@@ -2987,8 +2987,8 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
       <c r="C87">
         <v>18</v>
       </c>
@@ -3006,8 +3006,8 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
       <c r="C88">
         <v>19</v>
       </c>
@@ -3028,8 +3028,8 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
       <c r="C89">
         <v>20</v>
       </c>
@@ -3047,8 +3047,8 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
       <c r="C90">
         <v>21</v>
       </c>
@@ -3066,8 +3066,8 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
       <c r="C91">
         <v>22</v>
       </c>
@@ -3088,8 +3088,8 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
       <c r="C92">
         <v>23</v>
       </c>
@@ -3107,8 +3107,8 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
       <c r="C93">
         <v>24</v>
       </c>
@@ -3126,8 +3126,8 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
       <c r="C94">
         <v>25</v>
       </c>
@@ -3145,8 +3145,8 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
       <c r="C95">
         <v>26</v>
       </c>
@@ -3164,8 +3164,8 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
       <c r="C96">
         <v>27</v>
       </c>
@@ -3183,8 +3183,8 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
       <c r="C97">
         <v>28</v>
       </c>
@@ -3202,8 +3202,8 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
       <c r="C98">
         <v>29</v>
       </c>
@@ -3224,8 +3224,8 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
       <c r="C99">
         <v>30</v>
       </c>
@@ -3243,8 +3243,8 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
       <c r="C100">
         <v>31</v>
       </c>
@@ -3265,8 +3265,8 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
       <c r="C101">
         <v>32</v>
       </c>
@@ -3284,8 +3284,8 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
       <c r="C102">
         <v>33</v>
       </c>
@@ -3303,8 +3303,8 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
       <c r="C103">
         <v>34</v>
       </c>
@@ -3322,8 +3322,8 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
       <c r="C104">
         <v>35</v>
       </c>
@@ -3341,8 +3341,8 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
       <c r="C105">
         <v>36</v>
       </c>
@@ -3363,8 +3363,8 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
       <c r="C106">
         <v>37</v>
       </c>
@@ -3382,8 +3382,8 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
       <c r="C107">
         <v>38</v>
       </c>
@@ -3401,8 +3401,8 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
       <c r="C108">
         <v>39</v>
       </c>
@@ -3420,8 +3420,8 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
       <c r="C109">
         <v>40</v>
       </c>
@@ -3439,8 +3439,8 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
       <c r="C110">
         <v>41</v>
       </c>
@@ -3458,8 +3458,8 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
       <c r="C111">
         <v>42</v>
       </c>
@@ -3480,8 +3480,8 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
       <c r="C112">
         <v>43</v>
       </c>
@@ -3499,8 +3499,8 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
       <c r="C113">
         <v>44</v>
       </c>
@@ -3518,8 +3518,8 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
       <c r="C114">
         <v>45</v>
       </c>
@@ -3537,8 +3537,8 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
       <c r="C115">
         <v>46</v>
       </c>
@@ -3559,8 +3559,8 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
       <c r="C116">
         <v>47</v>
       </c>
@@ -3578,8 +3578,8 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
       <c r="C117">
         <v>48</v>
       </c>
@@ -3597,8 +3597,8 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
       <c r="C118">
         <v>49</v>
       </c>
@@ -3616,8 +3616,8 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
       <c r="C119">
         <v>50</v>
       </c>
@@ -3635,10 +3635,10 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C120">
@@ -3661,8 +3661,8 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
       <c r="C121">
         <v>2</v>
       </c>
@@ -3680,8 +3680,8 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
       <c r="C122">
         <v>3</v>
       </c>
@@ -3702,8 +3702,8 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
       <c r="C123">
         <v>4</v>
       </c>
@@ -3721,8 +3721,8 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
       <c r="C124">
         <v>5</v>
       </c>
@@ -3740,8 +3740,8 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
       <c r="C125">
         <v>6</v>
       </c>
@@ -3762,10 +3762,10 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C126">
@@ -3788,8 +3788,8 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
       <c r="C127">
         <v>2</v>
       </c>
@@ -3807,8 +3807,8 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
       <c r="C128">
         <v>3</v>
       </c>
@@ -3826,8 +3826,8 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
       <c r="C129">
         <v>4</v>
       </c>
@@ -3845,8 +3845,8 @@
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
       <c r="C130">
         <v>5</v>
       </c>
@@ -3864,8 +3864,8 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
       <c r="C131">
         <v>6</v>
       </c>
@@ -3883,8 +3883,8 @@
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
       <c r="C132">
         <v>7</v>
       </c>
@@ -3902,8 +3902,8 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
       <c r="C133">
         <v>8</v>
       </c>
@@ -3921,8 +3921,8 @@
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
       <c r="C134">
         <v>9</v>
       </c>
@@ -3940,8 +3940,8 @@
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
       <c r="C135">
         <v>10</v>
       </c>
@@ -3959,8 +3959,8 @@
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
       <c r="C136">
         <v>11</v>
       </c>
@@ -3978,8 +3978,8 @@
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
       <c r="C137">
         <v>12</v>
       </c>
@@ -3997,8 +3997,8 @@
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
       <c r="C138">
         <v>13</v>
       </c>
@@ -4016,8 +4016,8 @@
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
       <c r="C139">
         <v>14</v>
       </c>
@@ -4035,8 +4035,8 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
       <c r="C140">
         <v>15</v>
       </c>
@@ -4054,8 +4054,8 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
       <c r="C141">
         <v>16</v>
       </c>
@@ -4073,8 +4073,8 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
       <c r="C142">
         <v>17</v>
       </c>
@@ -4092,8 +4092,8 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
       <c r="C143">
         <v>18</v>
       </c>
@@ -4111,8 +4111,8 @@
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
       <c r="C144">
         <v>19</v>
       </c>
@@ -4130,8 +4130,8 @@
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
       <c r="C145">
         <v>20</v>
       </c>
@@ -4149,8 +4149,8 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
       <c r="C146">
         <v>21</v>
       </c>
@@ -4168,10 +4168,10 @@
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C147">
@@ -4191,8 +4191,8 @@
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
       <c r="C148">
         <v>2</v>
       </c>
@@ -4210,8 +4210,8 @@
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
       <c r="C149">
         <v>3</v>
       </c>
@@ -4229,8 +4229,8 @@
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
       <c r="C150">
         <v>4</v>
       </c>
@@ -4248,8 +4248,8 @@
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
       <c r="C151">
         <v>5</v>
       </c>
@@ -4267,8 +4267,8 @@
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
       <c r="C152">
         <v>6</v>
       </c>
@@ -4289,8 +4289,8 @@
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
       <c r="C153">
         <v>7</v>
       </c>
@@ -4308,8 +4308,8 @@
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
       <c r="C154">
         <v>8</v>
       </c>
@@ -4327,8 +4327,8 @@
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
       <c r="C155">
         <v>9</v>
       </c>
@@ -4346,8 +4346,8 @@
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
       <c r="C156">
         <v>10</v>
       </c>
@@ -4365,8 +4365,8 @@
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
+      <c r="A157" s="2"/>
+      <c r="B157" s="2"/>
       <c r="C157">
         <v>11</v>
       </c>
@@ -4384,10 +4384,10 @@
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C158">
@@ -4410,8 +4410,8 @@
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
       <c r="C159">
         <v>2</v>
       </c>
@@ -4429,8 +4429,8 @@
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
       <c r="C160">
         <v>3</v>
       </c>
@@ -4448,8 +4448,8 @@
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
       <c r="C161">
         <v>4</v>
       </c>
@@ -4467,8 +4467,8 @@
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
+      <c r="A162" s="2"/>
+      <c r="B162" s="2"/>
       <c r="C162">
         <v>5</v>
       </c>
@@ -4486,8 +4486,8 @@
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
       <c r="C163">
         <v>6</v>
       </c>
@@ -4508,8 +4508,8 @@
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
       <c r="C164">
         <v>7</v>
       </c>
@@ -4527,8 +4527,8 @@
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A165" s="3"/>
-      <c r="B165" s="3"/>
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
       <c r="C165">
         <v>8</v>
       </c>
@@ -4549,8 +4549,8 @@
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A166" s="3"/>
-      <c r="B166" s="3"/>
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
       <c r="C166">
         <v>9</v>
       </c>
@@ -4568,8 +4568,8 @@
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A167" s="3"/>
-      <c r="B167" s="3"/>
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
       <c r="C167">
         <v>10</v>
       </c>
@@ -4587,8 +4587,8 @@
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A168" s="3"/>
-      <c r="B168" s="3"/>
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
       <c r="C168">
         <v>11</v>
       </c>
@@ -4606,8 +4606,8 @@
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A169" s="3"/>
-      <c r="B169" s="3"/>
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
       <c r="C169">
         <v>12</v>
       </c>
@@ -4628,8 +4628,8 @@
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A170" s="3"/>
-      <c r="B170" s="3"/>
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
       <c r="C170">
         <v>13</v>
       </c>
@@ -4647,8 +4647,8 @@
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A171" s="3"/>
-      <c r="B171" s="3"/>
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
       <c r="C171">
         <v>14</v>
       </c>
@@ -4666,8 +4666,8 @@
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
       <c r="C172">
         <v>15</v>
       </c>
@@ -4685,8 +4685,8 @@
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A173" s="3"/>
-      <c r="B173" s="3"/>
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
       <c r="C173">
         <v>16</v>
       </c>
@@ -4707,8 +4707,8 @@
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A174" s="3"/>
-      <c r="B174" s="3"/>
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
       <c r="C174">
         <v>17</v>
       </c>
@@ -4726,8 +4726,8 @@
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A175" s="3"/>
-      <c r="B175" s="3"/>
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
       <c r="C175">
         <v>18</v>
       </c>
@@ -4745,8 +4745,8 @@
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A176" s="3"/>
-      <c r="B176" s="3"/>
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
       <c r="C176">
         <v>19</v>
       </c>
@@ -4764,8 +4764,8 @@
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A177" s="3"/>
-      <c r="B177" s="3"/>
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
       <c r="C177">
         <v>20</v>
       </c>
@@ -4783,8 +4783,8 @@
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A178" s="3"/>
-      <c r="B178" s="3"/>
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
       <c r="C178">
         <v>21</v>
       </c>
@@ -4802,8 +4802,8 @@
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A179" s="3"/>
-      <c r="B179" s="3"/>
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
       <c r="C179">
         <v>22</v>
       </c>
@@ -4821,8 +4821,8 @@
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A180" s="3"/>
-      <c r="B180" s="3"/>
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
       <c r="C180">
         <v>23</v>
       </c>
@@ -4840,8 +4840,8 @@
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A181" s="3"/>
-      <c r="B181" s="3"/>
+      <c r="A181" s="2"/>
+      <c r="B181" s="2"/>
       <c r="C181">
         <v>24</v>
       </c>
@@ -4859,8 +4859,8 @@
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A182" s="3"/>
-      <c r="B182" s="3"/>
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
       <c r="C182">
         <v>25</v>
       </c>
@@ -4878,8 +4878,8 @@
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A183" s="3"/>
-      <c r="B183" s="3"/>
+      <c r="A183" s="2"/>
+      <c r="B183" s="2"/>
       <c r="C183">
         <v>26</v>
       </c>
@@ -4897,8 +4897,8 @@
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A184" s="3"/>
-      <c r="B184" s="3"/>
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
       <c r="C184">
         <v>27</v>
       </c>
@@ -4916,8 +4916,8 @@
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A185" s="3"/>
-      <c r="B185" s="3"/>
+      <c r="A185" s="2"/>
+      <c r="B185" s="2"/>
       <c r="C185">
         <v>28</v>
       </c>
@@ -4935,8 +4935,8 @@
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A186" s="3"/>
-      <c r="B186" s="3"/>
+      <c r="A186" s="2"/>
+      <c r="B186" s="2"/>
       <c r="C186">
         <v>29</v>
       </c>
@@ -4954,8 +4954,8 @@
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A187" s="3"/>
-      <c r="B187" s="3"/>
+      <c r="A187" s="2"/>
+      <c r="B187" s="2"/>
       <c r="C187">
         <v>30</v>
       </c>
@@ -4973,8 +4973,8 @@
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A188" s="3"/>
-      <c r="B188" s="3"/>
+      <c r="A188" s="2"/>
+      <c r="B188" s="2"/>
       <c r="C188">
         <v>31</v>
       </c>
@@ -4992,8 +4992,8 @@
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A189" s="3"/>
-      <c r="B189" s="3"/>
+      <c r="A189" s="2"/>
+      <c r="B189" s="2"/>
       <c r="C189">
         <v>32</v>
       </c>
@@ -5011,8 +5011,8 @@
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A190" s="3"/>
-      <c r="B190" s="3"/>
+      <c r="A190" s="2"/>
+      <c r="B190" s="2"/>
       <c r="C190">
         <v>33</v>
       </c>
@@ -5030,8 +5030,8 @@
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A191" s="3"/>
-      <c r="B191" s="3"/>
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
       <c r="C191">
         <v>34</v>
       </c>
@@ -5049,10 +5049,10 @@
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A192" s="3" t="s">
+      <c r="A192" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B192" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C192">
@@ -5075,8 +5075,8 @@
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A193" s="3"/>
-      <c r="B193" s="3"/>
+      <c r="A193" s="2"/>
+      <c r="B193" s="2"/>
       <c r="C193">
         <v>2</v>
       </c>
@@ -5094,8 +5094,8 @@
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A194" s="3"/>
-      <c r="B194" s="3"/>
+      <c r="A194" s="2"/>
+      <c r="B194" s="2"/>
       <c r="C194">
         <v>3</v>
       </c>
@@ -5113,8 +5113,8 @@
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A195" s="3"/>
-      <c r="B195" s="3"/>
+      <c r="A195" s="2"/>
+      <c r="B195" s="2"/>
       <c r="C195">
         <v>4</v>
       </c>
@@ -5132,8 +5132,8 @@
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A196" s="3"/>
-      <c r="B196" s="3"/>
+      <c r="A196" s="2"/>
+      <c r="B196" s="2"/>
       <c r="C196">
         <v>5</v>
       </c>
@@ -5151,8 +5151,8 @@
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A197" s="3"/>
-      <c r="B197" s="3"/>
+      <c r="A197" s="2"/>
+      <c r="B197" s="2"/>
       <c r="C197">
         <v>6</v>
       </c>
@@ -5170,8 +5170,8 @@
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A198" s="3"/>
-      <c r="B198" s="3"/>
+      <c r="A198" s="2"/>
+      <c r="B198" s="2"/>
       <c r="C198">
         <v>7</v>
       </c>
@@ -5189,8 +5189,8 @@
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A199" s="3"/>
-      <c r="B199" s="3"/>
+      <c r="A199" s="2"/>
+      <c r="B199" s="2"/>
       <c r="C199">
         <v>8</v>
       </c>
@@ -5208,8 +5208,8 @@
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A200" s="3"/>
-      <c r="B200" s="3"/>
+      <c r="A200" s="2"/>
+      <c r="B200" s="2"/>
       <c r="C200">
         <v>9</v>
       </c>
@@ -5227,8 +5227,8 @@
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A201" s="3"/>
-      <c r="B201" s="3"/>
+      <c r="A201" s="2"/>
+      <c r="B201" s="2"/>
       <c r="C201">
         <v>10</v>
       </c>
@@ -5246,8 +5246,8 @@
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A202" s="3"/>
-      <c r="B202" s="3"/>
+      <c r="A202" s="2"/>
+      <c r="B202" s="2"/>
       <c r="C202">
         <v>11</v>
       </c>
@@ -5265,8 +5265,8 @@
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A203" s="3"/>
-      <c r="B203" s="3"/>
+      <c r="A203" s="2"/>
+      <c r="B203" s="2"/>
       <c r="C203">
         <v>12</v>
       </c>
@@ -5287,8 +5287,8 @@
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A204" s="3"/>
-      <c r="B204" s="3"/>
+      <c r="A204" s="2"/>
+      <c r="B204" s="2"/>
       <c r="C204">
         <v>13</v>
       </c>
@@ -5306,8 +5306,8 @@
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A205" s="3"/>
-      <c r="B205" s="3"/>
+      <c r="A205" s="2"/>
+      <c r="B205" s="2"/>
       <c r="C205">
         <v>14</v>
       </c>
@@ -5325,8 +5325,8 @@
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A206" s="3"/>
-      <c r="B206" s="3"/>
+      <c r="A206" s="2"/>
+      <c r="B206" s="2"/>
       <c r="C206">
         <v>15</v>
       </c>
@@ -5344,8 +5344,8 @@
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A207" s="3"/>
-      <c r="B207" s="3"/>
+      <c r="A207" s="2"/>
+      <c r="B207" s="2"/>
       <c r="C207">
         <v>16</v>
       </c>
@@ -5363,8 +5363,8 @@
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A208" s="3"/>
-      <c r="B208" s="3"/>
+      <c r="A208" s="2"/>
+      <c r="B208" s="2"/>
       <c r="C208">
         <v>17</v>
       </c>
@@ -5385,8 +5385,8 @@
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A209" s="3"/>
-      <c r="B209" s="3"/>
+      <c r="A209" s="2"/>
+      <c r="B209" s="2"/>
       <c r="C209">
         <v>18</v>
       </c>
@@ -5404,8 +5404,8 @@
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A210" s="3"/>
-      <c r="B210" s="3"/>
+      <c r="A210" s="2"/>
+      <c r="B210" s="2"/>
       <c r="C210">
         <v>19</v>
       </c>
@@ -5423,8 +5423,8 @@
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A211" s="3"/>
-      <c r="B211" s="3"/>
+      <c r="A211" s="2"/>
+      <c r="B211" s="2"/>
       <c r="C211">
         <v>20</v>
       </c>
@@ -5442,8 +5442,8 @@
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A212" s="3"/>
-      <c r="B212" s="3"/>
+      <c r="A212" s="2"/>
+      <c r="B212" s="2"/>
       <c r="C212">
         <v>21</v>
       </c>
@@ -5461,8 +5461,8 @@
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A213" s="3"/>
-      <c r="B213" s="3"/>
+      <c r="A213" s="2"/>
+      <c r="B213" s="2"/>
       <c r="C213">
         <v>22</v>
       </c>
@@ -5480,8 +5480,8 @@
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A214" s="3"/>
-      <c r="B214" s="3"/>
+      <c r="A214" s="2"/>
+      <c r="B214" s="2"/>
       <c r="C214">
         <v>23</v>
       </c>
@@ -5499,8 +5499,8 @@
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A215" s="3"/>
-      <c r="B215" s="3"/>
+      <c r="A215" s="2"/>
+      <c r="B215" s="2"/>
       <c r="C215">
         <v>24</v>
       </c>
@@ -5518,8 +5518,8 @@
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A216" s="3"/>
-      <c r="B216" s="3"/>
+      <c r="A216" s="2"/>
+      <c r="B216" s="2"/>
       <c r="C216">
         <v>25</v>
       </c>
@@ -5540,10 +5540,10 @@
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A217" s="3" t="s">
+      <c r="A217" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="B217" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C217">
@@ -5563,8 +5563,8 @@
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A218" s="3"/>
-      <c r="B218" s="3"/>
+      <c r="A218" s="2"/>
+      <c r="B218" s="2"/>
       <c r="C218">
         <v>2</v>
       </c>
@@ -5585,8 +5585,8 @@
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A219" s="3"/>
-      <c r="B219" s="3"/>
+      <c r="A219" s="2"/>
+      <c r="B219" s="2"/>
       <c r="C219">
         <v>3</v>
       </c>
@@ -5604,8 +5604,8 @@
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A220" s="3"/>
-      <c r="B220" s="3"/>
+      <c r="A220" s="2"/>
+      <c r="B220" s="2"/>
       <c r="C220">
         <v>4</v>
       </c>
@@ -5626,8 +5626,8 @@
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A221" s="3"/>
-      <c r="B221" s="3"/>
+      <c r="A221" s="2"/>
+      <c r="B221" s="2"/>
       <c r="C221">
         <v>5</v>
       </c>
@@ -5645,8 +5645,8 @@
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A222" s="3"/>
-      <c r="B222" s="3"/>
+      <c r="A222" s="2"/>
+      <c r="B222" s="2"/>
       <c r="C222">
         <v>6</v>
       </c>
@@ -5664,8 +5664,8 @@
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A223" s="3"/>
-      <c r="B223" s="3"/>
+      <c r="A223" s="2"/>
+      <c r="B223" s="2"/>
       <c r="C223">
         <v>7</v>
       </c>
@@ -5683,8 +5683,8 @@
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A224" s="3"/>
-      <c r="B224" s="3"/>
+      <c r="A224" s="2"/>
+      <c r="B224" s="2"/>
       <c r="C224">
         <v>8</v>
       </c>
@@ -5705,8 +5705,8 @@
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A225" s="3"/>
-      <c r="B225" s="3"/>
+      <c r="A225" s="2"/>
+      <c r="B225" s="2"/>
       <c r="C225">
         <v>9</v>
       </c>
@@ -5724,8 +5724,8 @@
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A226" s="3"/>
-      <c r="B226" s="3"/>
+      <c r="A226" s="2"/>
+      <c r="B226" s="2"/>
       <c r="C226">
         <v>10</v>
       </c>
@@ -5743,8 +5743,8 @@
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A227" s="3"/>
-      <c r="B227" s="3"/>
+      <c r="A227" s="2"/>
+      <c r="B227" s="2"/>
       <c r="C227">
         <v>11</v>
       </c>
@@ -5762,8 +5762,8 @@
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A228" s="3"/>
-      <c r="B228" s="3"/>
+      <c r="A228" s="2"/>
+      <c r="B228" s="2"/>
       <c r="C228">
         <v>12</v>
       </c>
@@ -5784,8 +5784,8 @@
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A229" s="3"/>
-      <c r="B229" s="3"/>
+      <c r="A229" s="2"/>
+      <c r="B229" s="2"/>
       <c r="C229">
         <v>13</v>
       </c>
@@ -5803,8 +5803,8 @@
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A230" s="3"/>
-      <c r="B230" s="3"/>
+      <c r="A230" s="2"/>
+      <c r="B230" s="2"/>
       <c r="C230">
         <v>14</v>
       </c>
@@ -5822,8 +5822,8 @@
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A231" s="3"/>
-      <c r="B231" s="3"/>
+      <c r="A231" s="2"/>
+      <c r="B231" s="2"/>
       <c r="C231">
         <v>15</v>
       </c>
@@ -5841,8 +5841,8 @@
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A232" s="3"/>
-      <c r="B232" s="3"/>
+      <c r="A232" s="2"/>
+      <c r="B232" s="2"/>
       <c r="C232">
         <v>16</v>
       </c>
@@ -5863,8 +5863,8 @@
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A233" s="3"/>
-      <c r="B233" s="3"/>
+      <c r="A233" s="2"/>
+      <c r="B233" s="2"/>
       <c r="C233">
         <v>17</v>
       </c>
@@ -5882,8 +5882,8 @@
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A234" s="3"/>
-      <c r="B234" s="3"/>
+      <c r="A234" s="2"/>
+      <c r="B234" s="2"/>
       <c r="C234">
         <v>18</v>
       </c>
@@ -5904,8 +5904,8 @@
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A235" s="3"/>
-      <c r="B235" s="3"/>
+      <c r="A235" s="2"/>
+      <c r="B235" s="2"/>
       <c r="C235">
         <v>19</v>
       </c>
@@ -5923,8 +5923,8 @@
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A236" s="3"/>
-      <c r="B236" s="3"/>
+      <c r="A236" s="2"/>
+      <c r="B236" s="2"/>
       <c r="C236">
         <v>20</v>
       </c>
@@ -5942,8 +5942,8 @@
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A237" s="3"/>
-      <c r="B237" s="3"/>
+      <c r="A237" s="2"/>
+      <c r="B237" s="2"/>
       <c r="C237">
         <v>21</v>
       </c>
@@ -5961,8 +5961,8 @@
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A238" s="3"/>
-      <c r="B238" s="3"/>
+      <c r="A238" s="2"/>
+      <c r="B238" s="2"/>
       <c r="C238">
         <v>22</v>
       </c>
@@ -5983,8 +5983,8 @@
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A239" s="3"/>
-      <c r="B239" s="3"/>
+      <c r="A239" s="2"/>
+      <c r="B239" s="2"/>
       <c r="C239">
         <v>23</v>
       </c>
@@ -6002,8 +6002,8 @@
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A240" s="3"/>
-      <c r="B240" s="3"/>
+      <c r="A240" s="2"/>
+      <c r="B240" s="2"/>
       <c r="C240">
         <v>24</v>
       </c>
@@ -6021,8 +6021,8 @@
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A241" s="3"/>
-      <c r="B241" s="3"/>
+      <c r="A241" s="2"/>
+      <c r="B241" s="2"/>
       <c r="C241">
         <v>25</v>
       </c>
@@ -6040,8 +6040,8 @@
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A242" s="3"/>
-      <c r="B242" s="3"/>
+      <c r="A242" s="2"/>
+      <c r="B242" s="2"/>
       <c r="C242">
         <v>26</v>
       </c>
@@ -6059,8 +6059,8 @@
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A243" s="3"/>
-      <c r="B243" s="3"/>
+      <c r="A243" s="2"/>
+      <c r="B243" s="2"/>
       <c r="C243">
         <v>27</v>
       </c>
@@ -6078,8 +6078,8 @@
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A244" s="3"/>
-      <c r="B244" s="3"/>
+      <c r="A244" s="2"/>
+      <c r="B244" s="2"/>
       <c r="C244">
         <v>28</v>
       </c>
@@ -6100,8 +6100,8 @@
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A245" s="3"/>
-      <c r="B245" s="3"/>
+      <c r="A245" s="2"/>
+      <c r="B245" s="2"/>
       <c r="C245">
         <v>29</v>
       </c>
@@ -6122,8 +6122,8 @@
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A246" s="3"/>
-      <c r="B246" s="3"/>
+      <c r="A246" s="2"/>
+      <c r="B246" s="2"/>
       <c r="C246">
         <v>30</v>
       </c>
@@ -6141,8 +6141,8 @@
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A247" s="3"/>
-      <c r="B247" s="3"/>
+      <c r="A247" s="2"/>
+      <c r="B247" s="2"/>
       <c r="C247">
         <v>31</v>
       </c>
@@ -6160,8 +6160,8 @@
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A248" s="3"/>
-      <c r="B248" s="3"/>
+      <c r="A248" s="2"/>
+      <c r="B248" s="2"/>
       <c r="C248">
         <v>32</v>
       </c>
@@ -6179,8 +6179,8 @@
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A249" s="3"/>
-      <c r="B249" s="3"/>
+      <c r="A249" s="2"/>
+      <c r="B249" s="2"/>
       <c r="C249">
         <v>33</v>
       </c>
@@ -6201,8 +6201,8 @@
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A250" s="3"/>
-      <c r="B250" s="3"/>
+      <c r="A250" s="2"/>
+      <c r="B250" s="2"/>
       <c r="C250">
         <v>34</v>
       </c>
@@ -6220,8 +6220,8 @@
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A251" s="3"/>
-      <c r="B251" s="3"/>
+      <c r="A251" s="2"/>
+      <c r="B251" s="2"/>
       <c r="C251">
         <v>35</v>
       </c>
@@ -6239,8 +6239,8 @@
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A252" s="3"/>
-      <c r="B252" s="3"/>
+      <c r="A252" s="2"/>
+      <c r="B252" s="2"/>
       <c r="C252">
         <v>36</v>
       </c>
@@ -6258,8 +6258,8 @@
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A253" s="3"/>
-      <c r="B253" s="3"/>
+      <c r="A253" s="2"/>
+      <c r="B253" s="2"/>
       <c r="C253">
         <v>37</v>
       </c>
@@ -6277,8 +6277,8 @@
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A254" s="3"/>
-      <c r="B254" s="3"/>
+      <c r="A254" s="2"/>
+      <c r="B254" s="2"/>
       <c r="C254">
         <v>38</v>
       </c>
@@ -6296,10 +6296,10 @@
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A255" s="3" t="s">
+      <c r="A255" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B255" s="3" t="s">
+      <c r="B255" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C255">
@@ -6319,8 +6319,8 @@
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A256" s="3"/>
-      <c r="B256" s="3"/>
+      <c r="A256" s="2"/>
+      <c r="B256" s="2"/>
       <c r="C256">
         <v>2</v>
       </c>
@@ -6338,8 +6338,8 @@
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A257" s="3"/>
-      <c r="B257" s="3"/>
+      <c r="A257" s="2"/>
+      <c r="B257" s="2"/>
       <c r="C257">
         <v>3</v>
       </c>
@@ -6357,8 +6357,8 @@
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A258" s="3"/>
-      <c r="B258" s="3"/>
+      <c r="A258" s="2"/>
+      <c r="B258" s="2"/>
       <c r="C258">
         <v>4</v>
       </c>
@@ -6376,8 +6376,8 @@
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A259" s="3"/>
-      <c r="B259" s="3"/>
+      <c r="A259" s="2"/>
+      <c r="B259" s="2"/>
       <c r="C259">
         <v>5</v>
       </c>
@@ -6398,8 +6398,8 @@
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A260" s="3"/>
-      <c r="B260" s="3"/>
+      <c r="A260" s="2"/>
+      <c r="B260" s="2"/>
       <c r="C260">
         <v>6</v>
       </c>
@@ -6420,8 +6420,8 @@
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A261" s="3"/>
-      <c r="B261" s="3"/>
+      <c r="A261" s="2"/>
+      <c r="B261" s="2"/>
       <c r="C261">
         <v>7</v>
       </c>
@@ -6439,8 +6439,8 @@
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A262" s="3"/>
-      <c r="B262" s="3"/>
+      <c r="A262" s="2"/>
+      <c r="B262" s="2"/>
       <c r="C262">
         <v>8</v>
       </c>
@@ -6458,10 +6458,10 @@
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A263" s="3" t="s">
+      <c r="A263" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B263" s="3" t="s">
+      <c r="B263" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C263">
@@ -6481,8 +6481,8 @@
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A264" s="3"/>
-      <c r="B264" s="3"/>
+      <c r="A264" s="2"/>
+      <c r="B264" s="2"/>
       <c r="C264">
         <v>2</v>
       </c>
@@ -6500,8 +6500,8 @@
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A265" s="3"/>
-      <c r="B265" s="3"/>
+      <c r="A265" s="2"/>
+      <c r="B265" s="2"/>
       <c r="C265">
         <v>3</v>
       </c>
@@ -6522,10 +6522,10 @@
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A266" s="3" t="s">
+      <c r="A266" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B266" s="3" t="s">
+      <c r="B266" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C266">
@@ -6548,8 +6548,8 @@
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A267" s="3"/>
-      <c r="B267" s="3"/>
+      <c r="A267" s="2"/>
+      <c r="B267" s="2"/>
       <c r="C267">
         <v>2</v>
       </c>
@@ -6567,8 +6567,8 @@
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A268" s="3"/>
-      <c r="B268" s="3"/>
+      <c r="A268" s="2"/>
+      <c r="B268" s="2"/>
       <c r="C268">
         <v>3</v>
       </c>
@@ -6586,8 +6586,8 @@
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A269" s="3"/>
-      <c r="B269" s="3"/>
+      <c r="A269" s="2"/>
+      <c r="B269" s="2"/>
       <c r="C269">
         <v>4</v>
       </c>
@@ -6605,8 +6605,8 @@
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A270" s="3"/>
-      <c r="B270" s="3"/>
+      <c r="A270" s="2"/>
+      <c r="B270" s="2"/>
       <c r="C270">
         <v>5</v>
       </c>
@@ -6624,8 +6624,8 @@
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A271" s="3"/>
-      <c r="B271" s="3"/>
+      <c r="A271" s="2"/>
+      <c r="B271" s="2"/>
       <c r="C271">
         <v>6</v>
       </c>
@@ -6643,8 +6643,8 @@
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A272" s="3"/>
-      <c r="B272" s="3"/>
+      <c r="A272" s="2"/>
+      <c r="B272" s="2"/>
       <c r="C272">
         <v>7</v>
       </c>
@@ -6662,8 +6662,8 @@
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A273" s="3"/>
-      <c r="B273" s="3"/>
+      <c r="A273" s="2"/>
+      <c r="B273" s="2"/>
       <c r="C273">
         <v>8</v>
       </c>
@@ -6681,8 +6681,8 @@
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A274" s="3"/>
-      <c r="B274" s="3"/>
+      <c r="A274" s="2"/>
+      <c r="B274" s="2"/>
       <c r="C274">
         <v>9</v>
       </c>
@@ -6700,8 +6700,8 @@
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A275" s="3"/>
-      <c r="B275" s="3"/>
+      <c r="A275" s="2"/>
+      <c r="B275" s="2"/>
       <c r="C275">
         <v>10</v>
       </c>
@@ -6719,8 +6719,8 @@
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A276" s="3"/>
-      <c r="B276" s="3"/>
+      <c r="A276" s="2"/>
+      <c r="B276" s="2"/>
       <c r="C276">
         <v>11</v>
       </c>
@@ -6738,8 +6738,8 @@
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A277" s="3"/>
-      <c r="B277" s="3"/>
+      <c r="A277" s="2"/>
+      <c r="B277" s="2"/>
       <c r="C277">
         <v>12</v>
       </c>
@@ -6757,8 +6757,8 @@
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A278" s="3"/>
-      <c r="B278" s="3"/>
+      <c r="A278" s="2"/>
+      <c r="B278" s="2"/>
       <c r="C278">
         <v>13</v>
       </c>
@@ -6776,8 +6776,8 @@
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A279" s="3"/>
-      <c r="B279" s="3"/>
+      <c r="A279" s="2"/>
+      <c r="B279" s="2"/>
       <c r="C279">
         <v>14</v>
       </c>
@@ -6795,8 +6795,8 @@
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A280" s="3"/>
-      <c r="B280" s="3"/>
+      <c r="A280" s="2"/>
+      <c r="B280" s="2"/>
       <c r="C280">
         <v>15</v>
       </c>
@@ -6814,8 +6814,8 @@
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A281" s="3"/>
-      <c r="B281" s="3"/>
+      <c r="A281" s="2"/>
+      <c r="B281" s="2"/>
       <c r="C281">
         <v>16</v>
       </c>
@@ -6833,8 +6833,8 @@
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A282" s="3"/>
-      <c r="B282" s="3"/>
+      <c r="A282" s="2"/>
+      <c r="B282" s="2"/>
       <c r="C282">
         <v>17</v>
       </c>
@@ -6852,8 +6852,8 @@
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A283" s="3"/>
-      <c r="B283" s="3"/>
+      <c r="A283" s="2"/>
+      <c r="B283" s="2"/>
       <c r="C283">
         <v>18</v>
       </c>
@@ -6871,8 +6871,8 @@
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A284" s="3"/>
-      <c r="B284" s="3"/>
+      <c r="A284" s="2"/>
+      <c r="B284" s="2"/>
       <c r="C284">
         <v>19</v>
       </c>
@@ -6890,8 +6890,8 @@
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A285" s="3"/>
-      <c r="B285" s="3"/>
+      <c r="A285" s="2"/>
+      <c r="B285" s="2"/>
       <c r="C285">
         <v>20</v>
       </c>
@@ -6909,8 +6909,8 @@
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A286" s="3"/>
-      <c r="B286" s="3"/>
+      <c r="A286" s="2"/>
+      <c r="B286" s="2"/>
       <c r="C286">
         <v>21</v>
       </c>
@@ -6928,10 +6928,10 @@
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A287" s="3" t="s">
+      <c r="A287" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B287" s="3" t="s">
+      <c r="B287" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C287">
@@ -6954,8 +6954,8 @@
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A288" s="3"/>
-      <c r="B288" s="3"/>
+      <c r="A288" s="2"/>
+      <c r="B288" s="2"/>
       <c r="C288">
         <v>2</v>
       </c>
@@ -6973,8 +6973,8 @@
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A289" s="3"/>
-      <c r="B289" s="3"/>
+      <c r="A289" s="2"/>
+      <c r="B289" s="2"/>
       <c r="C289">
         <v>3</v>
       </c>
@@ -6993,36 +6993,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A32"/>
+    <mergeCell ref="B4:B32"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A33:A69"/>
+    <mergeCell ref="B33:B69"/>
+    <mergeCell ref="A70:A119"/>
+    <mergeCell ref="B70:B119"/>
+    <mergeCell ref="A120:A125"/>
+    <mergeCell ref="B120:B125"/>
+    <mergeCell ref="A126:A146"/>
+    <mergeCell ref="B126:B146"/>
+    <mergeCell ref="A147:A157"/>
+    <mergeCell ref="B147:B157"/>
+    <mergeCell ref="A158:A191"/>
+    <mergeCell ref="B158:B191"/>
+    <mergeCell ref="A192:A216"/>
+    <mergeCell ref="B192:B216"/>
+    <mergeCell ref="A217:A254"/>
+    <mergeCell ref="B217:B254"/>
+    <mergeCell ref="A255:A262"/>
+    <mergeCell ref="B255:B262"/>
     <mergeCell ref="A263:A265"/>
     <mergeCell ref="B263:B265"/>
     <mergeCell ref="A266:A286"/>
     <mergeCell ref="B266:B286"/>
     <mergeCell ref="A287:A289"/>
     <mergeCell ref="B287:B289"/>
-    <mergeCell ref="A192:A216"/>
-    <mergeCell ref="B192:B216"/>
-    <mergeCell ref="A217:A254"/>
-    <mergeCell ref="B217:B254"/>
-    <mergeCell ref="A255:A262"/>
-    <mergeCell ref="B255:B262"/>
-    <mergeCell ref="A126:A146"/>
-    <mergeCell ref="B126:B146"/>
-    <mergeCell ref="A147:A157"/>
-    <mergeCell ref="B147:B157"/>
-    <mergeCell ref="A158:A191"/>
-    <mergeCell ref="B158:B191"/>
-    <mergeCell ref="A33:A69"/>
-    <mergeCell ref="B33:B69"/>
-    <mergeCell ref="A70:A119"/>
-    <mergeCell ref="B70:B119"/>
-    <mergeCell ref="A120:A125"/>
-    <mergeCell ref="B120:B125"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:A32"/>
-    <mergeCell ref="B4:B32"/>
-    <mergeCell ref="C2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
